--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H2">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>116.0325973241432</v>
+        <v>126.6984299091578</v>
       </c>
       <c r="R2">
-        <v>1044.293375917289</v>
+        <v>1140.28586918242</v>
       </c>
       <c r="S2">
-        <v>0.06111791621980263</v>
+        <v>0.07430299411045335</v>
       </c>
       <c r="T2">
-        <v>0.06111791621980264</v>
+        <v>0.07430299411045332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H3">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>61.94959087150722</v>
+        <v>79.23985622866111</v>
       </c>
       <c r="R3">
-        <v>557.5463178435649</v>
+        <v>713.1587060579499</v>
       </c>
       <c r="S3">
-        <v>0.03263074336049545</v>
+        <v>0.04647065141133061</v>
       </c>
       <c r="T3">
-        <v>0.03263074336049545</v>
+        <v>0.0464706514113306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H4">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>139.3584310888569</v>
+        <v>88.83358428825889</v>
       </c>
       <c r="R4">
-        <v>1254.225879799712</v>
+        <v>799.50225859433</v>
       </c>
       <c r="S4">
-        <v>0.07340434595304604</v>
+        <v>0.05209694622824895</v>
       </c>
       <c r="T4">
-        <v>0.07340434595304604</v>
+        <v>0.05209694622824893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H5">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>10.60649405914222</v>
+        <v>11.38693897787222</v>
       </c>
       <c r="R5">
-        <v>95.45844653227999</v>
+        <v>102.48245080085</v>
       </c>
       <c r="S5">
-        <v>0.005586764669945091</v>
+        <v>0.006677933265752143</v>
       </c>
       <c r="T5">
-        <v>0.005586764669945092</v>
+        <v>0.006677933265752142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H6">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>85.64928123623935</v>
+        <v>90.04659995152555</v>
       </c>
       <c r="R6">
-        <v>770.8435311261541</v>
+        <v>810.4193995637298</v>
       </c>
       <c r="S6">
-        <v>0.04511409479406345</v>
+        <v>0.05280832596474776</v>
       </c>
       <c r="T6">
-        <v>0.04511409479406345</v>
+        <v>0.05280832596474775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>193.701190855548</v>
+        <v>165.355358641608</v>
       </c>
       <c r="R7">
-        <v>1743.310717699932</v>
+        <v>1488.198227774472</v>
       </c>
       <c r="S7">
-        <v>0.1020283388237324</v>
+        <v>0.09697356350894479</v>
       </c>
       <c r="T7">
-        <v>0.1020283388237324</v>
+        <v>0.09697356350894477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>103.41671048958</v>
       </c>
       <c r="R8">
-        <v>930.7503944062202</v>
+        <v>930.7503944062199</v>
       </c>
       <c r="S8">
-        <v>0.05447274294630125</v>
+        <v>0.06064930114713527</v>
       </c>
       <c r="T8">
-        <v>0.05447274294630125</v>
+        <v>0.06064930114713526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>232.640608589184</v>
+        <v>115.937578705092</v>
       </c>
       <c r="R9">
-        <v>2093.765477302656</v>
+        <v>1043.438208345828</v>
       </c>
       <c r="S9">
-        <v>0.1225389205531398</v>
+        <v>0.06799223347819888</v>
       </c>
       <c r="T9">
-        <v>0.1225389205531398</v>
+        <v>0.06799223347819887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>17.70614962896</v>
+        <v>14.86120530354</v>
       </c>
       <c r="R10">
-        <v>159.35534666064</v>
+        <v>133.75084773186</v>
       </c>
       <c r="S10">
-        <v>0.00932637030070944</v>
+        <v>0.008715435944509334</v>
       </c>
       <c r="T10">
-        <v>0.00932637030070944</v>
+        <v>0.008715435944509334</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>142.9802327447281</v>
+        <v>117.520697297652</v>
       </c>
       <c r="R11">
-        <v>1286.822094702552</v>
+        <v>1057.686275678868</v>
       </c>
       <c r="S11">
-        <v>0.07531205960656279</v>
+        <v>0.06892066212205401</v>
       </c>
       <c r="T11">
-        <v>0.07531205960656277</v>
+        <v>0.068920662122054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H12">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I12">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J12">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>222.8828689796995</v>
+        <v>253.2214179882176</v>
       </c>
       <c r="R12">
-        <v>2005.945820817296</v>
+        <v>2278.992761893958</v>
       </c>
       <c r="S12">
-        <v>0.1173992207989309</v>
+        <v>0.1485030993904939</v>
       </c>
       <c r="T12">
-        <v>0.1173992207989309</v>
+        <v>0.1485030993904938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H13">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I13">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J13">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>118.9967549117955</v>
+        <v>158.3699874559672</v>
       </c>
       <c r="R13">
-        <v>1070.97079420616</v>
+        <v>1425.329887103705</v>
       </c>
       <c r="S13">
-        <v>0.06267922863788407</v>
+        <v>0.09287695398948867</v>
       </c>
       <c r="T13">
-        <v>0.06267922863788408</v>
+        <v>0.09287695398948866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H14">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I14">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J14">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>267.6886293497742</v>
+        <v>177.5441589495408</v>
       </c>
       <c r="R14">
-        <v>2409.197664147968</v>
+        <v>1597.897430545867</v>
       </c>
       <c r="S14">
-        <v>0.1409997845337304</v>
+        <v>0.1041217527812442</v>
       </c>
       <c r="T14">
-        <v>0.1409997845337305</v>
+        <v>0.1041217527812442</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H15">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I15">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J15">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>20.37363534243555</v>
+        <v>22.75811023537944</v>
       </c>
       <c r="R15">
-        <v>183.36271808192</v>
+        <v>204.822992118415</v>
       </c>
       <c r="S15">
-        <v>0.01073141657316582</v>
+        <v>0.01334661946479434</v>
       </c>
       <c r="T15">
-        <v>0.01073141657316582</v>
+        <v>0.01334661946479434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H16">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I16">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J16">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>164.5206430625174</v>
+        <v>179.9685105892141</v>
       </c>
       <c r="R16">
-        <v>1480.685787562656</v>
+        <v>1619.716595302927</v>
       </c>
       <c r="S16">
-        <v>0.08665805222849032</v>
+        <v>0.1055435271926041</v>
       </c>
       <c r="T16">
-        <v>0.08665805222849034</v>
+        <v>0.1055435271926041</v>
       </c>
     </row>
   </sheetData>
